--- a/public/templates/Template_Daftar_Tamu.xlsx
+++ b/public/templates/Template_Daftar_Tamu.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\undangan_digital\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37FD90F9-0F88-473D-845B-A02A28378A7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEFC238-D200-4386-86F1-1F2CD9BC53DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5A49B6DE-A4CD-4FF5-83CE-3BECCE692000}"/>
   </bookViews>
@@ -31,19 +31,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Phone</t>
   </si>
+  <si>
+    <t>contoh: Khansa Delphi</t>
+  </si>
+  <si>
+    <t>contoh: 82109876543 ATAU 082109876543</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +68,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -93,11 +106,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -413,24 +432,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDE914DB-A692-4D2D-B945-B99DECFE6636}">
-  <dimension ref="A1:B1"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="25.05" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="60.77734375" customWidth="1"/>
+    <col min="2" max="2" width="40.77734375" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>